--- a/Tabellen Hotelreservierungssystem.xlsx
+++ b/Tabellen Hotelreservierungssystem.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\GitHub\BAI_Datenbasierte_Unternehmensanwendungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhnw365.sharepoint.com/teams/P-HS2024_BSc_BAI_DBUA_M365-TeamP/Freigegebene Dokumente/Team P/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48FE09B-19C0-4F42-9A81-644485EC106A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="713" documentId="13_ncr:1_{D48FE09B-19C0-4F42-9A81-644485EC106A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D38ED3-D196-4464-ACFE-9289B4F48750}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B30E8313-C1DD-48F6-88E7-DB4EFB4EBA26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{B30E8313-C1DD-48F6-88E7-DB4EFB4EBA26}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hotel" sheetId="1" r:id="rId1"/>
+    <sheet name="Inhaber" sheetId="8" r:id="rId1"/>
+    <sheet name="Adresse" sheetId="4" r:id="rId2"/>
+    <sheet name="Hotel" sheetId="1" r:id="rId3"/>
+    <sheet name="Kunde" sheetId="5" r:id="rId4"/>
+    <sheet name="Raum" sheetId="2" r:id="rId5"/>
+    <sheet name="Verfügbarkeit" sheetId="16" r:id="rId6"/>
+    <sheet name="Ausstattung" sheetId="6" r:id="rId7"/>
+    <sheet name="Pensionsart" sheetId="15" r:id="rId8"/>
+    <sheet name="Buchung" sheetId="9" r:id="rId9"/>
+    <sheet name="Rechnung" sheetId="10" r:id="rId10"/>
+    <sheet name="Zahlung" sheetId="11" r:id="rId11"/>
+    <sheet name="Rechnungs Artikel" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +46,541 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Sterne</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Barrierefreiheit</t>
+  </si>
+  <si>
+    <t>Anzahl Stockwerke</t>
+  </si>
+  <si>
+    <t>Baujahr</t>
+  </si>
+  <si>
+    <t>Max Kapazität</t>
+  </si>
+  <si>
+    <t>Anzahl Mitarbeiter</t>
+  </si>
+  <si>
+    <t>Anzahl Zimmer</t>
+  </si>
+  <si>
+    <t>Raumnummer</t>
+  </si>
+  <si>
+    <t>Stockwerk</t>
+  </si>
+  <si>
+    <t>Zimmertyp</t>
+  </si>
+  <si>
+    <t>hat_Balkon</t>
+  </si>
+  <si>
+    <t>Kapazität</t>
+  </si>
+  <si>
+    <t>Preis/Nacht</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Betriebsart</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Adresse ID</t>
+  </si>
+  <si>
+    <t>Telefonnummer</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>WLAN</t>
+  </si>
+  <si>
+    <t>Bett</t>
+  </si>
+  <si>
+    <t>Doppelbett</t>
+  </si>
+  <si>
+    <t>Stuhl</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Dusche</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Parkplatz</t>
+  </si>
+  <si>
+    <t>Fernseher</t>
+  </si>
+  <si>
+    <t>Kaffeemaschine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bügeleisen </t>
+  </si>
+  <si>
+    <t>Minibar</t>
+  </si>
+  <si>
+    <t>Waschservice</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>0176-1234567</t>
+  </si>
+  <si>
+    <t>anna.mueller@example.com</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>0151-7654321</t>
+  </si>
+  <si>
+    <t>ben.schmidt@example.com</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Fischer</t>
+  </si>
+  <si>
+    <t>0170-9876543</t>
+  </si>
+  <si>
+    <t>clara.fischer@example.com</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>0160-5555555</t>
+  </si>
+  <si>
+    <t>david.wagner@example.com</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>0171-1111111</t>
+  </si>
+  <si>
+    <t>eva.schneider@example.com</t>
+  </si>
+  <si>
+    <t>Hotel Alpenblick</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Vollpension</t>
+  </si>
+  <si>
+    <t>Ganzjährig</t>
+  </si>
+  <si>
+    <t>Hotel Berghof</t>
+  </si>
+  <si>
+    <t>Resort</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Halbpension</t>
+  </si>
+  <si>
+    <t>Saisonal</t>
+  </si>
+  <si>
+    <t>Hotel Seeperle</t>
+  </si>
+  <si>
+    <t>Hostel</t>
+  </si>
+  <si>
+    <t>Nur Frühstück</t>
+  </si>
+  <si>
+    <t>Hotel Bergpanorama</t>
+  </si>
+  <si>
+    <t>Hotel Edelweiss</t>
+  </si>
+  <si>
+    <t>Luxury</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>Lausanne</t>
+  </si>
+  <si>
+    <t>Lugano</t>
+  </si>
+  <si>
+    <t>EZ</t>
+  </si>
+  <si>
+    <t>Einzelzimmer mit Balkon und Bergblick</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>Doppelzimmer ohne Balkon, Seeblick</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>Studio mit Küche und Balkon, Bergblick</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>Große Suite mit Balkon und Whirlpool</t>
+  </si>
+  <si>
+    <t>Familienzimmer</t>
+  </si>
+  <si>
+    <t>Geräumiges Familienzimmer mit 2 Schlafzimmern</t>
+  </si>
+  <si>
+    <t>Suter</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Silverstein</t>
+  </si>
+  <si>
+    <t>Surename</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Basti</t>
+  </si>
+  <si>
+    <t>Bueeler</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>Statestreet</t>
+  </si>
+  <si>
+    <t>Blackrock</t>
+  </si>
+  <si>
+    <t>Buchungsdatum</t>
+  </si>
+  <si>
+    <t>End Datum</t>
+  </si>
+  <si>
+    <t>Start Datum</t>
+  </si>
+  <si>
+    <t>Wurde abgebrochen</t>
+  </si>
+  <si>
+    <t>Kunden ID</t>
+  </si>
+  <si>
+    <t>Zahlungs ID</t>
+  </si>
+  <si>
+    <t>Buchungs ID</t>
+  </si>
+  <si>
+    <t>Rechnungs Datum</t>
+  </si>
+  <si>
+    <t>Währung</t>
+  </si>
+  <si>
+    <t>Betrag</t>
+  </si>
+  <si>
+    <t>Wurde bezahlt</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>Rechnungs ID</t>
+  </si>
+  <si>
+    <t>Twint</t>
+  </si>
+  <si>
+    <t>Paypal</t>
+  </si>
+  <si>
+    <t>Rechnung</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Amex</t>
+  </si>
+  <si>
+    <t>Raum ID</t>
+  </si>
+  <si>
+    <t>Ist_Verfügbar</t>
+  </si>
+  <si>
+    <t>Raum_ID</t>
+  </si>
+  <si>
+    <t>Zusatzinformationen</t>
+  </si>
+  <si>
+    <t>Tresor</t>
+  </si>
+  <si>
+    <t>Badetuch</t>
+  </si>
+  <si>
+    <t>Inhaber ID</t>
+  </si>
+  <si>
+    <t>Adressen ID</t>
+  </si>
+  <si>
+    <t>Strasse</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Bahnhofstrasse</t>
+  </si>
+  <si>
+    <t>Gemeindeplatz</t>
+  </si>
+  <si>
+    <t>Luzernerstrasse</t>
+  </si>
+  <si>
+    <t>Langstrasse</t>
+  </si>
+  <si>
+    <t>Bahnhofplatz</t>
+  </si>
+  <si>
+    <t>Pensoinsart ID</t>
+  </si>
+  <si>
+    <t>Ausstattung ID</t>
+  </si>
+  <si>
+    <t>Ist Mühsam</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Balkon wichtig</t>
+  </si>
+  <si>
+    <t>spät Zahler</t>
+  </si>
+  <si>
+    <t>extra bett für kind</t>
+  </si>
+  <si>
+    <t>Küche</t>
+  </si>
+  <si>
+    <t>Kaffemaschine</t>
+  </si>
+  <si>
+    <t>Ski Pass</t>
+  </si>
+  <si>
+    <t>Rechnungs Artikel ID</t>
+  </si>
+  <si>
+    <t>Getränk</t>
+  </si>
+  <si>
+    <t>Reinigung</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>2,5,7</t>
+  </si>
+  <si>
+    <t>1,3,8</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>Mongolstrasse</t>
+  </si>
+  <si>
+    <t>Niederlenz</t>
+  </si>
+  <si>
+    <t>Mattweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinach </t>
+  </si>
+  <si>
+    <t>Polenstrasse</t>
+  </si>
+  <si>
+    <t>Seon</t>
+  </si>
+  <si>
+    <t>Aarauerstrasse</t>
+  </si>
+  <si>
+    <t>Lenzburg</t>
+  </si>
+  <si>
+    <t>Mattenweg</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,8 +606,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -83,6 +642,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,13 +964,2079 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193E82F9-5698-4963-88C8-B1D6C73FBE53}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53901359-21A2-4F25-A87F-DD9F7AB73029}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CFA1F-CA77-483B-BEEC-68A1CB463E3E}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>44929</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>44930</v>
+      </c>
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>44931</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9">
+        <v>44932</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>44933</v>
+      </c>
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E724F8-FAFB-4923-A6FF-B7470D48DFDC}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0CB26-373C-40A8-AEF9-5053C001511B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D345C4-2A75-4A35-845B-FF094897FBFF}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="4">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8001</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="4">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4001</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6900</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>5702</v>
+      </c>
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>5734</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5703</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>5600</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5702</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193E82F9-5698-4963-88C8-B1D6C73FBE53}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1990</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3">
+        <v>150</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>2005</v>
+      </c>
+      <c r="K3">
+        <v>300</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1985</v>
+      </c>
+      <c r="K4">
+        <v>60</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>2010</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6">
+        <v>120</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>2000</v>
+      </c>
+      <c r="K6">
+        <v>250</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4666530-49F2-42FE-AC84-833073923B1A}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD09F30F-9C37-41CB-9783-BF2BE3713B49}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>150</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>303</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>404</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>300</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>505</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>250</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC3AEE2-C36E-49DA-801F-C15AFB1D1896}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="8">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8">
+        <v>45888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4530F4-329E-41E9-8EF1-6D59935F9A9B}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0AB926-A86D-4196-864B-508872B57C27}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B3BB8E-F928-4612-B59B-7FF3FD70CEB2}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>44927</v>
+      </c>
+      <c r="G2" s="8">
+        <v>44929</v>
+      </c>
+      <c r="H2" s="8">
+        <v>44715</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44928</v>
+      </c>
+      <c r="G3" s="8">
+        <v>44930</v>
+      </c>
+      <c r="H3" s="8">
+        <v>44716</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>44929</v>
+      </c>
+      <c r="G4" s="8">
+        <v>44931</v>
+      </c>
+      <c r="H4" s="8">
+        <v>44717</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>44930</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44932</v>
+      </c>
+      <c r="H5" s="8">
+        <v>44718</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>44931</v>
+      </c>
+      <c r="G6" s="8">
+        <v>44933</v>
+      </c>
+      <c r="H6" s="8">
+        <v>44719</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A782D3484281B74993EE3C8CA4D9E891" ma:contentTypeVersion="4" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="382b056165ec37978135915f092cada1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="298bf8de-4560-42bf-b9af-13daeeb9da43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="948e7e014126d0090ba05c6fa233afe2" ns2:_="">
+    <xsd:import namespace="298bf8de-4560-42bf-b9af-13daeeb9da43"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="298bf8de-4560-42bf-b9af-13daeeb9da43" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EED47F2-17A4-4C9C-9F70-C2110A966FA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="298bf8de-4560-42bf-b9af-13daeeb9da43"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58507834-16D9-4B76-A593-E3346C9F54E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>